--- a/public/cxjg/充值结算单.xlsx
+++ b/public/cxjg/充值结算单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="799"/>
+    <workbookView windowWidth="20100" windowHeight="11220" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="充值结算单" sheetId="2" r:id="rId1"/>
@@ -1498,8 +1498,8 @@
   </sheetPr>
   <dimension ref="C1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.4416666666667" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="6"/>
@@ -1765,8 +1765,8 @@
         <v>-2</v>
       </c>
       <c r="F19" s="14">
-        <f>SUM(C19:E19)</f>
-        <v>-2</v>
+        <f>C19+D19-E19</f>
+        <v>2</v>
       </c>
       <c r="G19" s="14"/>
     </row>
